--- a/medicine/Mort/Mort_par_GPS/Mort_par_GPS.xlsx
+++ b/medicine/Mort/Mort_par_GPS/Mort_par_GPS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mort par GPS fait référence à la mort de personnes imputable, en partie, au suivi irréfléchi d'instructions données par un  assistant de navigation  GPS[1],[2],[3]. Par exemple, le GPS a été impliqué dans des morts de conducteurs dans la vallée de la Mort[4],[5], de même que dans celles de randonneurs du parc national de Joshua Tree dans le Sud-Est de la Californie, mais aussi dans des morts dans l'État de Washington, en Australie, en Angleterre, en Italie[2], en Espagne[6] et au Brésil[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mort par GPS fait référence à la mort de personnes imputable, en partie, au suivi irréfléchi d'instructions données par un  assistant de navigation  GPS. Par exemple, le GPS a été impliqué dans des morts de conducteurs dans la vallée de la Mort de même que dans celles de randonneurs du parc national de Joshua Tree dans le Sud-Est de la Californie, mais aussi dans des morts dans l'État de Washington, en Australie, en Angleterre, en Italie, en Espagne et au Brésil.
 </t>
         </is>
       </c>
